--- a/Assets/Resources/Configs/Quest/QuestChain.xlsx
+++ b/Assets/Resources/Configs/Quest/QuestChain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMIU\Perforce\yifeimia_pc_18435\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Quest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\yifeimia_razer_532\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C54073-D843-4B5A-AF0D-2398AB2C9DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03ECD581-DB49-4B8C-AA78-222A30D8A913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2810" yWindow="4800" windowWidth="28800" windowHeight="15450" xr2:uid="{82A92A70-2028-4BEB-AF4C-1D18519ABEAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{82A92A70-2028-4BEB-AF4C-1D18519ABEAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
   <si>
     <t>task_chain_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,95 @@
     "interactable": true
   }
 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Escape from the Dungeon</t>
+  </si>
+  <si>
+    <t>escape_dungeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defeat_enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solve_puzzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solve puzzle 1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solve puzzle 1-2</t>
+  </si>
+  <si>
+    <t>Solve puzzle 1-3</t>
+  </si>
+  <si>
+    <t>knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protect the princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protect_princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protect_knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survive!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>survive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help the knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defeat the boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defeat the enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EA1C71-8D82-4BB7-8D20-A450F2EE3CA4}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -662,15 +751,15 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="98" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -697,7 +786,392 @@
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Quest/QuestChain.xlsx
+++ b/Assets/Resources/Configs/Quest/QuestChain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\yifeimia_razer_532\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Quest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMIU\Perforce\yifeimia_Miao-PC_2024\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03ECD581-DB49-4B8C-AA78-222A30D8A913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91225CD3-2784-4916-96EA-6CF30D8E0528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{82A92A70-2028-4BEB-AF4C-1D18519ABEAE}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15450" xr2:uid="{82A92A70-2028-4BEB-AF4C-1D18519ABEAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Open the gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unlock the gate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +107,6 @@
   </si>
   <si>
     <t>unlock_gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_gate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -252,6 +244,14 @@
   </si>
   <si>
     <t>Defeat the enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear the spider web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear_web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EA1C71-8D82-4BB7-8D20-A450F2EE3CA4}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -666,16 +666,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -698,25 +698,25 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="168" x14ac:dyDescent="0.3">
@@ -733,25 +733,25 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="98" x14ac:dyDescent="0.3">
@@ -762,28 +762,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>7</v>
@@ -797,31 +797,31 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -832,31 +832,31 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -867,31 +867,31 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -902,31 +902,31 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -937,31 +937,31 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -972,31 +972,31 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1007,31 +1007,31 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1042,31 +1042,31 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1077,31 +1077,31 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1112,31 +1112,31 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1147,31 +1147,31 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Quest/QuestChain.xlsx
+++ b/Assets/Resources/Configs/Quest/QuestChain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMIU\Perforce\yifeimia_Miao-PC_2024\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Quest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18221\Perforce\yifeimia_532PC_02\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91225CD3-2784-4916-96EA-6CF30D8E0528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E956D0FD-6C62-40CD-AD61-596B4D274CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15450" xr2:uid="{82A92A70-2028-4BEB-AF4C-1D18519ABEAE}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="37920" xr2:uid="{82A92A70-2028-4BEB-AF4C-1D18519ABEAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>task_chain_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,41 +189,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Solve puzzle 1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solve puzzle 1-2</t>
-  </si>
-  <si>
-    <t>Solve puzzle 1-3</t>
-  </si>
-  <si>
-    <t>knight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protect the princess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>protect_princess</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>princess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find the key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protect_knight</t>
+    <t>Defeat the enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear the spider web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear_web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Escape from the Maze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solve the puzzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,27 +221,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>survive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Help the knight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defeat the boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defeat the enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clear the spider web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear_web</t>
+    <t>Leave the main city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save the knight!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EA1C71-8D82-4BB7-8D20-A450F2EE3CA4}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -768,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
@@ -777,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -838,7 +812,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -861,10 +835,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -873,7 +847,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>30</v>
@@ -882,16 +856,16 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -899,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -908,7 +882,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>30</v>
@@ -920,30 +894,30 @@
         <v>32</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>30</v>
@@ -955,7 +929,7 @@
         <v>32</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>29</v>
@@ -969,16 +943,16 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>30</v>
@@ -987,7 +961,7 @@
         <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1001,19 +975,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>30</v>
@@ -1022,7 +996,7 @@
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1031,146 +1005,6 @@
         <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" t="s">
         <v>29</v>
       </c>
     </row>
